--- a/src/main/resources/templates/excel/学生成绩表格样例.xlsx
+++ b/src/main/resources/templates/excel/学生成绩表格样例.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FD3E15-9EB7-4F66-8F6A-03478CD045FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6074BA59-9C9F-44E9-BEC3-ADF50FF094AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5568" yWindow="2484" windowWidth="17280" windowHeight="9876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>考试科目名</t>
   </si>
@@ -50,6 +50,10 @@
   </si>
   <si>
     <t>软件工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>012345678</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -108,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -117,6 +121,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -400,7 +407,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -439,8 +446,8 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
-        <v>11</v>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>87</v>
@@ -460,8 +467,8 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1">
-        <v>12</v>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>67</v>
